--- a/saved_kpis/sales_invoice/table.xlsx
+++ b/saved_kpis/sales_invoice/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D372"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Completely_Shipped</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Final Invoice Date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>O2C Cycle Days</t>
         </is>
@@ -466,12 +471,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -488,12 +496,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -510,12 +521,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>25-04-2025</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -532,12 +546,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -554,12 +571,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -576,12 +596,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -598,12 +621,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>29-04-2025</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -620,12 +646,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -642,12 +671,15 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -664,12 +696,15 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>29-04-2025</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -686,12 +721,15 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>29-04-2025</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -708,12 +746,15 @@
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -730,12 +771,15 @@
           <t>24-04-2025</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -752,12 +796,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -774,12 +821,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -796,12 +846,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -818,12 +871,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -840,12 +896,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -862,12 +921,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -884,12 +946,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>24-05-2025</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -906,12 +971,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>30-05-2025</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>32</t>
         </is>
@@ -928,12 +996,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -950,12 +1021,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -972,12 +1046,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -994,12 +1071,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1016,12 +1096,15 @@
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1038,12 +1121,15 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>12-06-2025</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1060,12 +1146,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>25-06-2025</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -1082,12 +1171,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>25-06-2025</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -1104,12 +1196,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>12-06-2025</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1126,12 +1221,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>12-06-2025</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1148,12 +1246,15 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -1170,12 +1271,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1192,12 +1296,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1214,12 +1321,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>30-05-2025</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1236,12 +1346,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>10-07-2025</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -1258,12 +1371,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -1280,12 +1396,15 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1302,12 +1421,15 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1324,12 +1446,15 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1346,12 +1471,15 @@
           <t>17-07-2025</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>24-07-2025</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -1368,12 +1496,15 @@
           <t>19-07-2025</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>24-07-2025</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1390,12 +1521,15 @@
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1412,12 +1546,15 @@
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1434,12 +1571,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1456,12 +1596,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1478,12 +1621,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1500,12 +1646,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1522,12 +1671,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1544,12 +1696,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1566,12 +1721,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1588,12 +1746,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1610,12 +1771,15 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1632,12 +1796,15 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1654,12 +1821,15 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1676,12 +1846,15 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>29-08-2025</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1698,12 +1871,15 @@
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1720,12 +1896,15 @@
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1742,12 +1921,15 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1764,12 +1946,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -1786,12 +1971,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1808,12 +1996,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1830,12 +2021,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1852,12 +2046,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>19-09-2025</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -1874,12 +2071,15 @@
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1896,12 +2096,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1918,12 +2121,15 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>24-09-2025</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -1940,12 +2146,15 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1962,12 +2171,15 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -1984,12 +2196,15 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2006,12 +2221,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2028,12 +2246,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>33</t>
         </is>
@@ -2050,12 +2271,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -2072,12 +2296,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -2094,12 +2321,15 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2116,12 +2346,15 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2138,12 +2371,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2160,12 +2396,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2182,12 +2421,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2204,12 +2446,15 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -2226,12 +2471,15 @@
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2248,12 +2496,15 @@
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2270,12 +2521,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2292,12 +2546,15 @@
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2314,12 +2571,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2336,12 +2596,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -2358,12 +2621,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -2380,12 +2646,15 @@
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2402,12 +2671,15 @@
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2424,12 +2696,15 @@
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2446,12 +2721,15 @@
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2468,12 +2746,15 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2490,12 +2771,15 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -2512,12 +2796,15 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2534,12 +2821,15 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2556,12 +2846,15 @@
           <t>07-11-2025</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>08-11-2025</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2578,12 +2871,15 @@
           <t>08-11-2025</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>08-11-2025</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2600,12 +2896,15 @@
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2622,12 +2921,15 @@
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2644,12 +2946,15 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>29-08-2025</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2666,12 +2971,15 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2688,12 +2996,15 @@
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2710,12 +3021,15 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2732,12 +3046,15 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2754,12 +3071,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>25-04-2025</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -2776,12 +3096,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>25-04-2025</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -2798,12 +3121,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>25-04-2025</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -2820,12 +3146,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -2842,12 +3171,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2864,12 +3196,15 @@
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>06-06-2025</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -2886,12 +3221,15 @@
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2908,12 +3246,15 @@
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -2930,12 +3271,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -2952,12 +3296,15 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>25-06-2025</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -2974,12 +3321,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2996,12 +3346,15 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3018,12 +3371,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>15-07-2025</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3040,12 +3396,15 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3062,12 +3421,15 @@
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3084,12 +3446,15 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>24-07-2025</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -3106,12 +3471,15 @@
           <t>15-07-2025</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>24-07-2025</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -3128,12 +3496,15 @@
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3150,12 +3521,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3172,12 +3546,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3194,12 +3571,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3216,12 +3596,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3238,12 +3621,15 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3260,12 +3646,15 @@
           <t>14-08-2025</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>14-08-2025</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3282,12 +3671,15 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3304,12 +3696,15 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3326,12 +3721,15 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3348,12 +3746,15 @@
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3370,12 +3771,15 @@
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3392,12 +3796,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -3414,12 +3821,15 @@
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3436,12 +3846,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3458,12 +3871,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3480,12 +3896,15 @@
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3502,12 +3921,15 @@
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
         <is>
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3524,12 +3946,15 @@
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3546,12 +3971,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3568,12 +3996,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="inlineStr">
         <is>
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -3590,12 +4021,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3612,12 +4046,15 @@
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3634,12 +4071,15 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3656,12 +4096,15 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3678,12 +4121,15 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
         <is>
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3700,12 +4146,15 @@
           <t>07-10-2025</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>12-10-2025</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3722,12 +4171,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3744,12 +4196,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3766,12 +4221,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3788,12 +4246,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3810,12 +4271,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -3832,12 +4296,15 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3854,12 +4321,15 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
         <is>
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -3876,12 +4346,15 @@
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
         <is>
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3898,12 +4371,15 @@
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
         <is>
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3920,12 +4396,15 @@
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3942,12 +4421,15 @@
           <t>04-11-2025</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
         <is>
           <t>07-11-2025</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3964,12 +4446,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -3986,12 +4471,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -4008,12 +4496,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4030,12 +4521,15 @@
           <t>09-05-2025</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
         <is>
           <t>10-05-2025</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4052,12 +4546,15 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
         <is>
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4074,12 +4571,15 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
         <is>
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4096,12 +4596,15 @@
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4118,12 +4621,15 @@
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
         <is>
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4140,12 +4646,15 @@
           <t>27-05-2025</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
         <is>
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4162,12 +4671,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
         <is>
           <t>30-05-2025</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4184,12 +4696,15 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="inlineStr">
         <is>
           <t>05-06-2025</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4206,12 +4721,15 @@
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
         <is>
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4228,12 +4746,15 @@
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4250,12 +4771,15 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -4272,12 +4796,15 @@
           <t>24-06-2025</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
         <is>
           <t>24-06-2025</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4294,12 +4821,15 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
         <is>
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4316,12 +4846,15 @@
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
         <is>
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4338,12 +4871,15 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
         <is>
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4360,12 +4896,15 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
         <is>
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4382,12 +4921,15 @@
           <t>14-07-2025</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
         <is>
           <t>14-07-2025</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4404,12 +4946,15 @@
           <t>15-07-2025</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
         <is>
           <t>16-07-2025</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4426,12 +4971,15 @@
           <t>17-07-2025</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
         <is>
           <t>17-07-2025</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4448,12 +4996,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4470,12 +5021,15 @@
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
         <is>
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4492,12 +5046,15 @@
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
         <is>
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4514,12 +5071,15 @@
           <t>19-08-2025</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
         <is>
           <t>19-08-2025</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4536,12 +5096,15 @@
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
         <is>
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4558,12 +5121,15 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
         <is>
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4580,12 +5146,15 @@
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
         <is>
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4602,12 +5171,15 @@
           <t>05-09-2025</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>05-09-2025</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4624,12 +5196,15 @@
           <t>10-09-2025</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>10-09-2025</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4646,12 +5221,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4668,12 +5246,15 @@
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
         <is>
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4690,12 +5271,15 @@
           <t>14-09-2025</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
         <is>
           <t>14-09-2025</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4712,12 +5296,15 @@
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
         <is>
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4734,12 +5321,15 @@
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
         <is>
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4756,12 +5346,15 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
         <is>
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4778,12 +5371,15 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -4800,12 +5396,15 @@
           <t>24-09-2025</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
         <is>
           <t>25-09-2025</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4822,12 +5421,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4844,12 +5446,15 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4866,12 +5471,15 @@
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4888,12 +5496,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4910,12 +5521,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4932,12 +5546,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4954,12 +5571,15 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="inlineStr">
         <is>
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4976,12 +5596,15 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="inlineStr">
         <is>
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4998,12 +5621,15 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="inlineStr">
         <is>
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5020,12 +5646,15 @@
           <t>10-11-2025</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="inlineStr">
         <is>
           <t>10-11-2025</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5042,12 +5671,15 @@
           <t>10-04-2025</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="inlineStr">
         <is>
           <t>16-04-2025</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -5064,12 +5696,15 @@
           <t>18-04-2025</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="inlineStr">
         <is>
           <t>18-04-2025</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5086,12 +5721,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="inlineStr">
         <is>
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="E212" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -5108,12 +5746,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5130,12 +5771,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>25-04-2025</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="E214" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5152,12 +5796,15 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="inlineStr">
         <is>
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="E215" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5174,12 +5821,15 @@
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="E216" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -5196,12 +5846,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="inlineStr">
         <is>
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr">
+      <c r="E217" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5218,12 +5871,15 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="inlineStr">
         <is>
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5240,12 +5896,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>21-05-2025</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5262,12 +5921,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="inlineStr">
         <is>
           <t>21-05-2025</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5284,12 +5946,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="inlineStr">
         <is>
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5306,12 +5971,15 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="inlineStr">
         <is>
           <t>21-05-2025</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5328,12 +5996,15 @@
           <t>29-04-2025</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="inlineStr">
         <is>
           <t>20-05-2025</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -5350,12 +6021,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="inlineStr">
         <is>
           <t>24-05-2025</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="E224" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5372,12 +6046,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="inlineStr">
         <is>
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="E225" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5394,12 +6071,15 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="inlineStr">
         <is>
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5416,12 +6096,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="E227" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5438,12 +6121,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5460,12 +6146,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5482,12 +6171,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5504,12 +6196,15 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="inlineStr">
         <is>
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5526,12 +6221,15 @@
           <t>12-05-2025</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="inlineStr">
         <is>
           <t>12-05-2025</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5548,12 +6246,15 @@
           <t>13-05-2025</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="inlineStr">
         <is>
           <t>13-05-2025</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5570,12 +6271,15 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="inlineStr">
         <is>
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5592,12 +6296,15 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="inlineStr">
         <is>
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5614,12 +6321,15 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="inlineStr">
         <is>
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -5636,12 +6346,15 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="inlineStr">
         <is>
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5658,12 +6371,15 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="inlineStr">
         <is>
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="E238" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5680,12 +6396,15 @@
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="inlineStr">
         <is>
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -5702,12 +6421,15 @@
           <t>19-05-2025</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="inlineStr">
         <is>
           <t>27-05-2025</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -5724,12 +6446,15 @@
           <t>05-05-2025</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="inlineStr">
         <is>
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="E241" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -5746,12 +6471,15 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="inlineStr">
         <is>
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5768,12 +6496,15 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="inlineStr">
         <is>
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5790,12 +6521,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="inlineStr">
         <is>
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -5812,12 +6546,15 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="inlineStr">
         <is>
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -5834,12 +6571,15 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -5856,12 +6596,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="inlineStr">
         <is>
           <t>30-05-2025</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5878,12 +6621,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5900,12 +6646,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5922,12 +6671,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5944,12 +6696,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
+      <c r="E251" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5966,12 +6721,15 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="inlineStr">
         <is>
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5988,12 +6746,15 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="inlineStr">
         <is>
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
+      <c r="E253" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6010,12 +6771,15 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="inlineStr">
         <is>
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6032,12 +6796,15 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="inlineStr">
         <is>
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6054,12 +6821,15 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="inlineStr">
         <is>
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
+      <c r="E256" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6076,12 +6846,15 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="inlineStr">
         <is>
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
+      <c r="E257" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6098,12 +6871,15 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="inlineStr">
         <is>
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr">
+      <c r="E258" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6120,12 +6896,15 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -6142,12 +6921,15 @@
           <t>05-06-2025</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="inlineStr">
         <is>
           <t>05-06-2025</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="E260" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6164,12 +6946,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="E261" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6186,12 +6971,15 @@
           <t>12-06-2025</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="inlineStr">
         <is>
           <t>16-07-2025</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -6208,12 +6996,15 @@
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="inlineStr">
         <is>
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6230,12 +7021,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6252,12 +7046,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6274,12 +7071,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6296,12 +7096,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6318,12 +7121,15 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="inlineStr">
         <is>
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6340,12 +7146,15 @@
           <t>17-06-2025</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="inlineStr">
         <is>
           <t>17-06-2025</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
+      <c r="E269" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6362,12 +7171,15 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="inlineStr">
         <is>
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
+      <c r="E270" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6384,12 +7196,15 @@
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="inlineStr">
         <is>
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
+      <c r="E271" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6406,12 +7221,15 @@
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="inlineStr">
         <is>
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="E272" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6428,12 +7246,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="inlineStr">
         <is>
           <t>08-07-2025</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
+      <c r="E273" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -6450,12 +7271,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="inlineStr">
         <is>
           <t>09-07-2025</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -6472,12 +7296,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="inlineStr">
         <is>
           <t>08-07-2025</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -6494,12 +7321,15 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="inlineStr">
         <is>
           <t>09-07-2025</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -6516,12 +7346,15 @@
           <t>23-06-2025</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="inlineStr">
         <is>
           <t>23-06-2025</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
+      <c r="E277" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6538,12 +7371,15 @@
           <t>26-06-2025</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="inlineStr">
         <is>
           <t>26-06-2025</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="E278" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6560,12 +7396,15 @@
           <t>27-06-2025</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="inlineStr">
         <is>
           <t>27-06-2025</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6582,12 +7421,15 @@
           <t>30-06-2025</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="inlineStr">
         <is>
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -6604,12 +7446,15 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="inlineStr">
         <is>
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr">
+      <c r="E281" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6626,12 +7471,15 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="inlineStr">
         <is>
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr">
+      <c r="E282" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6648,12 +7496,15 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="inlineStr">
         <is>
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr">
+      <c r="E283" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6670,12 +7521,15 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="inlineStr">
         <is>
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6692,12 +7546,15 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="inlineStr">
         <is>
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6714,12 +7571,15 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="inlineStr">
         <is>
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr">
+      <c r="E286" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6736,12 +7596,15 @@
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="inlineStr">
         <is>
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr">
+      <c r="E287" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6758,12 +7621,15 @@
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="inlineStr">
         <is>
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6780,12 +7646,15 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="inlineStr">
         <is>
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6802,12 +7671,15 @@
           <t>09-07-2025</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="inlineStr">
         <is>
           <t>09-07-2025</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr">
+      <c r="E290" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6824,12 +7696,15 @@
           <t>12-07-2025</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="inlineStr">
         <is>
           <t>12-07-2025</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6846,12 +7721,15 @@
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="inlineStr">
         <is>
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr">
+      <c r="E292" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6868,12 +7746,15 @@
           <t>19-07-2025</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr">
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="inlineStr">
         <is>
           <t>19-07-2025</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr">
+      <c r="E293" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6890,12 +7771,15 @@
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr">
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="inlineStr">
         <is>
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr">
+      <c r="E294" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6912,12 +7796,15 @@
           <t>25-07-2025</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="inlineStr">
         <is>
           <t>12-08-2025</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr">
+      <c r="E295" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -6934,12 +7821,15 @@
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="inlineStr">
         <is>
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr">
+      <c r="E296" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6956,12 +7846,15 @@
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="inlineStr">
         <is>
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr">
+      <c r="E297" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6978,12 +7871,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="inlineStr">
         <is>
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7000,12 +7896,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr">
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="inlineStr">
         <is>
           <t>12-08-2025</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr">
+      <c r="E299" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -7022,12 +7921,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr">
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="inlineStr">
         <is>
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr">
+      <c r="E300" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -7044,12 +7946,15 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr">
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="inlineStr">
         <is>
           <t>13-08-2025</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr">
+      <c r="E301" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -7066,12 +7971,15 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr">
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="inlineStr">
         <is>
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr">
+      <c r="E302" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7088,12 +7996,15 @@
           <t>03-08-2025</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr">
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="inlineStr">
         <is>
           <t>03-08-2025</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr">
+      <c r="E303" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7110,12 +8021,15 @@
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="inlineStr">
         <is>
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr">
+      <c r="E304" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7132,12 +8046,15 @@
           <t>08-08-2025</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="inlineStr">
         <is>
           <t>08-08-2025</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr">
+      <c r="E305" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7154,12 +8071,15 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="inlineStr">
         <is>
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr">
+      <c r="E306" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7176,12 +8096,15 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr">
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="inlineStr">
         <is>
           <t>13-08-2025</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr">
+      <c r="E307" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7198,12 +8121,15 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr">
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="inlineStr">
         <is>
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr">
+      <c r="E308" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7220,12 +8146,15 @@
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr">
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="inlineStr">
         <is>
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr">
+      <c r="E309" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7242,12 +8171,15 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="inlineStr">
         <is>
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr">
+      <c r="E310" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7264,12 +8196,15 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="inlineStr">
         <is>
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr">
+      <c r="E311" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7286,12 +8221,15 @@
           <t>30-08-2025</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="inlineStr">
         <is>
           <t>30-08-2025</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr">
+      <c r="E312" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7308,12 +8246,15 @@
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="inlineStr">
         <is>
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7330,12 +8271,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr">
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="inlineStr">
         <is>
           <t>02-09-2025</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr">
+      <c r="E314" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7352,12 +8296,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr">
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr">
+      <c r="E315" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -7374,12 +8321,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr">
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr">
+      <c r="E316" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -7396,12 +8346,15 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr">
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr">
+      <c r="E317" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -7418,12 +8371,15 @@
           <t>05-09-2025</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr">
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr">
+      <c r="E318" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -7440,12 +8396,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr">
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr">
+      <c r="E319" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7462,12 +8421,15 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr">
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="inlineStr">
         <is>
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr">
+      <c r="E320" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7484,12 +8446,15 @@
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="inlineStr">
         <is>
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7506,12 +8471,15 @@
           <t>15-09-2025</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="inlineStr">
         <is>
           <t>15-09-2025</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr">
+      <c r="E322" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7528,12 +8496,15 @@
           <t>15-09-2025</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="inlineStr">
         <is>
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr">
+      <c r="E323" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -7550,12 +8521,15 @@
           <t>16-09-2025</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="inlineStr">
         <is>
           <t>16-09-2025</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr">
+      <c r="E324" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7572,12 +8546,15 @@
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="inlineStr">
         <is>
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr">
+      <c r="E325" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7594,12 +8571,15 @@
           <t>19-09-2025</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr">
+      <c r="E326" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -7616,12 +8596,15 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="inlineStr">
         <is>
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr">
+      <c r="E327" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7638,12 +8621,15 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="inlineStr">
         <is>
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7660,12 +8646,15 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr">
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="inlineStr">
         <is>
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr">
+      <c r="E329" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -7682,12 +8671,15 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr">
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="inlineStr">
         <is>
           <t>07-10-2025</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr">
+      <c r="E330" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -7704,12 +8696,15 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr">
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="inlineStr">
         <is>
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr">
+      <c r="E331" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7726,12 +8721,15 @@
           <t>25-09-2025</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr">
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="inlineStr">
         <is>
           <t>25-09-2025</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr">
+      <c r="E332" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7748,12 +8746,15 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr">
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="inlineStr">
         <is>
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr">
+      <c r="E333" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7770,12 +8771,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr">
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr">
+      <c r="E334" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -7792,12 +8796,15 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr">
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="inlineStr">
         <is>
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr">
+      <c r="E335" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -7814,12 +8821,15 @@
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr">
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="inlineStr">
         <is>
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr">
+      <c r="E336" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7836,12 +8846,15 @@
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr">
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="inlineStr">
         <is>
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr">
+      <c r="E337" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7858,12 +8871,15 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr">
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="inlineStr">
         <is>
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr">
+      <c r="E338" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7880,12 +8896,15 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D339" t="inlineStr">
         <is>
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -7902,12 +8921,15 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr">
+      <c r="E340" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -7924,12 +8946,15 @@
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="inlineStr">
         <is>
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7946,12 +8971,15 @@
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="inlineStr">
         <is>
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7968,12 +8996,15 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="inlineStr">
         <is>
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7990,12 +9021,15 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" t="inlineStr">
         <is>
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr">
+      <c r="E344" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8012,12 +9046,15 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="inlineStr">
         <is>
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8034,12 +9071,15 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="inlineStr">
         <is>
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr">
+      <c r="E346" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -8056,12 +9096,15 @@
           <t>14-10-2025</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr">
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="inlineStr">
         <is>
           <t>14-10-2025</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr">
+      <c r="E347" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8078,12 +9121,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr">
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="inlineStr">
         <is>
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr">
+      <c r="E348" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8100,12 +9146,15 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="inlineStr">
         <is>
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr">
+      <c r="E349" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -8122,12 +9171,15 @@
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="inlineStr">
         <is>
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr">
+      <c r="E350" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8144,12 +9196,15 @@
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="inlineStr">
         <is>
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8166,12 +9221,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr">
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="inlineStr">
         <is>
           <t>07-11-2025</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr">
+      <c r="E352" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -8188,12 +9246,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr">
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="inlineStr">
         <is>
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr">
+      <c r="E353" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -8210,12 +9271,15 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr">
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="inlineStr">
         <is>
           <t>10-11-2025</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr">
+      <c r="E354" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -8232,12 +9296,15 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr">
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr">
+      <c r="E355" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8254,12 +9321,15 @@
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr">
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="inlineStr">
         <is>
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr">
+      <c r="E356" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8276,12 +9346,15 @@
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr">
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="inlineStr">
         <is>
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr">
+      <c r="E357" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8298,12 +9371,15 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr">
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="inlineStr">
         <is>
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr">
+      <c r="E358" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8320,12 +9396,15 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr">
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="inlineStr">
         <is>
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr">
+      <c r="E359" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8342,12 +9421,15 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr">
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="inlineStr">
         <is>
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr">
+      <c r="E360" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8364,12 +9446,15 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr">
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="inlineStr">
         <is>
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr">
+      <c r="E361" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -8386,12 +9471,15 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="inlineStr">
         <is>
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr">
+      <c r="E362" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8408,12 +9496,15 @@
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="inlineStr">
         <is>
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr">
+      <c r="E363" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8430,12 +9521,15 @@
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="inlineStr">
         <is>
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr">
+      <c r="E364" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8452,12 +9546,15 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="inlineStr">
         <is>
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr">
+      <c r="E365" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8474,12 +9571,15 @@
           <t>04-11-2025</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="inlineStr">
         <is>
           <t>04-11-2025</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr">
+      <c r="E366" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8496,12 +9596,15 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="inlineStr">
         <is>
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr">
+      <c r="E367" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8518,12 +9621,15 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="inlineStr">
         <is>
           <t>10-11-2025</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr">
+      <c r="E368" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -8537,7 +9643,8 @@
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr">
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -8551,7 +9658,8 @@
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr">
+      <c r="D370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -8565,7 +9673,8 @@
       </c>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr">
+      <c r="D371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -8579,7 +9688,8 @@
       </c>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr">
+      <c r="D372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>

--- a/saved_kpis/sales_invoice/table.xlsx
+++ b/saved_kpis/sales_invoice/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:D372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Completely_Shipped</t>
+          <t>Final Invoice Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Final Invoice Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>O2C Cycle Days</t>
         </is>
@@ -471,15 +466,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -496,15 +488,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -521,15 +510,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>25-04-2025</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -546,15 +532,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>26-04-2025</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -571,15 +554,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -596,15 +576,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -621,15 +598,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>1</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>29-04-2025</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>29-04-2025</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -646,15 +620,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>1</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>22-04-2025</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>22-04-2025</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -671,15 +642,12 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -696,15 +664,12 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>29-04-2025</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>29-04-2025</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -721,15 +686,12 @@
           <t>22-04-2025</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>1</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>29-04-2025</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
-        <is>
-          <t>29-04-2025</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -746,15 +708,12 @@
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -771,15 +730,12 @@
           <t>24-04-2025</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t>26-04-2025</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -796,15 +752,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>1</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -821,15 +774,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -846,15 +796,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
-        <is>
-          <t>26-04-2025</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -871,15 +818,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -896,15 +840,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>1</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -921,15 +862,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>1</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16-05-2025</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
-        <is>
-          <t>16-05-2025</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -946,15 +884,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24-05-2025</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
-        <is>
-          <t>24-05-2025</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -971,15 +906,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>1</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
-        <is>
-          <t>30-05-2025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
         <is>
           <t>32</t>
         </is>
@@ -996,15 +928,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>07-05-2025</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
-        <is>
-          <t>07-05-2025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1021,15 +950,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1046,15 +972,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>1</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1071,15 +994,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>1</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>07-05-2025</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>07-05-2025</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1096,15 +1016,12 @@
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>1</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16-05-2025</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
-        <is>
-          <t>16-05-2025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1121,15 +1038,12 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>1</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12-06-2025</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
-        <is>
-          <t>12-06-2025</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
         <is>
           <t>20</t>
         </is>
@@ -1146,15 +1060,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>25-06-2025</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>25-06-2025</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -1171,15 +1082,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>1</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>25-06-2025</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>25-06-2025</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>30</t>
         </is>
@@ -1196,15 +1104,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>1</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>12-06-2025</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>12-06-2025</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1221,15 +1126,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>12-06-2025</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
-        <is>
-          <t>12-06-2025</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1246,15 +1148,12 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>1</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22-07-2025</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
-        <is>
-          <t>22-07-2025</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
         <is>
           <t>55</t>
         </is>
@@ -1271,15 +1170,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>1</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1296,15 +1192,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>1</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1321,15 +1214,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>1</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
-        <is>
-          <t>30-05-2025</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1346,15 +1236,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>1</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10-07-2025</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
-        <is>
-          <t>10-07-2025</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -1371,15 +1258,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>22-07-2025</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
-        <is>
-          <t>22-07-2025</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
         <is>
           <t>31</t>
         </is>
@@ -1396,15 +1280,12 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>1</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>28-06-2025</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>28-06-2025</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1421,15 +1302,12 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>1</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28-06-2025</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
-        <is>
-          <t>28-06-2025</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1446,15 +1324,12 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>1</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>28-06-2025</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
-        <is>
-          <t>28-06-2025</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1471,15 +1346,12 @@
           <t>17-07-2025</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>1</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24-07-2025</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
-        <is>
-          <t>24-07-2025</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -1496,15 +1368,12 @@
           <t>19-07-2025</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>1</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24-07-2025</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
-        <is>
-          <t>24-07-2025</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1521,15 +1390,12 @@
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>1</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>23-07-2025</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>23-07-2025</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1546,15 +1412,12 @@
           <t>23-07-2025</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>1</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>23-07-2025</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>23-07-2025</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1571,15 +1434,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>1</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>11-08-2025</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
-        <is>
-          <t>11-08-2025</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1596,15 +1456,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>1</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>07-08-2025</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1621,15 +1478,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>1</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
-        <is>
-          <t>07-08-2025</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1646,15 +1500,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>1</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>11-08-2025</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
-        <is>
-          <t>11-08-2025</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -1671,15 +1522,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>1</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
-        <is>
-          <t>07-08-2025</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -1696,15 +1544,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>1</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1721,15 +1566,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>1</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1746,15 +1588,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>1</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1771,15 +1610,12 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>0</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>22-08-2025</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1796,15 +1632,12 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>1</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>18-08-2025</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
-        <is>
-          <t>18-08-2025</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1821,15 +1654,12 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>1</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18-08-2025</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
-        <is>
-          <t>18-08-2025</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1846,15 +1676,12 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>1</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>29-08-2025</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
-        <is>
-          <t>29-08-2025</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -1871,15 +1698,12 @@
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>1</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>20-08-2025</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
-        <is>
-          <t>20-08-2025</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1896,15 +1720,12 @@
           <t>20-08-2025</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>1</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>20-08-2025</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>20-08-2025</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1921,15 +1742,12 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>1</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>08-09-2025</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
-        <is>
-          <t>08-09-2025</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -1946,15 +1764,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>1</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -1971,15 +1786,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>1</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>26-09-2025</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>26-09-2025</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1996,15 +1808,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>1</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -2021,15 +1830,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>1</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>13-09-2025</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
-        <is>
-          <t>13-09-2025</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2046,15 +1852,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>1</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>19-09-2025</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
-        <is>
-          <t>19-09-2025</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -2071,15 +1874,12 @@
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>1</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>08-09-2025</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
-        <is>
-          <t>08-09-2025</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2096,15 +1896,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>1</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2121,15 +1918,12 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>1</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>24-09-2025</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
-        <is>
-          <t>24-09-2025</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2146,15 +1940,12 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>1</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>09-10-2025</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -2171,15 +1962,12 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>1</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
-        <is>
-          <t>09-10-2025</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
         <is>
           <t>16</t>
         </is>
@@ -2196,15 +1984,12 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>1</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>27-09-2025</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>27-09-2025</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2221,15 +2006,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>1</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>26-09-2025</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
-        <is>
-          <t>26-09-2025</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2246,15 +2028,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>1</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
-        <is>
-          <t>29-10-2025</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
         <is>
           <t>33</t>
         </is>
@@ -2271,15 +2050,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>1</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
-        <is>
-          <t>09-10-2025</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -2296,15 +2072,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>1</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
-        <is>
-          <t>09-10-2025</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
         <is>
           <t>13</t>
         </is>
@@ -2321,15 +2094,12 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>1</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>27-09-2025</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
-        <is>
-          <t>27-09-2025</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2346,15 +2116,12 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>1</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>27-09-2025</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
-        <is>
-          <t>27-09-2025</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2371,15 +2138,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>1</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2396,15 +2160,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>1</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2421,15 +2182,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>1</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2446,15 +2204,12 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>18-10-2025</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
-        <is>
-          <t>18-10-2025</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -2471,15 +2226,12 @@
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>1</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>09-10-2025</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
-        <is>
-          <t>09-10-2025</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2496,15 +2248,12 @@
           <t>09-10-2025</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>1</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2521,15 +2270,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>1</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2546,15 +2292,12 @@
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>1</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>16-10-2025</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
-        <is>
-          <t>16-10-2025</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2571,15 +2314,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>1</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
-        <is>
-          <t>17-10-2025</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2596,15 +2336,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>1</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
-        <is>
-          <t>05-11-2025</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -2621,15 +2358,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>1</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
-        <is>
-          <t>05-11-2025</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -2646,15 +2380,12 @@
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>1</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18-10-2025</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
-        <is>
-          <t>18-10-2025</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2671,15 +2402,12 @@
           <t>18-10-2025</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>1</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>18-10-2025</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
-        <is>
-          <t>18-10-2025</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2696,15 +2424,12 @@
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>1</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>19-10-2025</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
-        <is>
-          <t>19-10-2025</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2721,15 +2446,12 @@
           <t>19-10-2025</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>1</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>19-10-2025</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
-        <is>
-          <t>19-10-2025</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2746,15 +2468,12 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>1</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
-        <is>
-          <t>06-11-2025</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -2771,15 +2490,12 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>1</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
-        <is>
-          <t>05-11-2025</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -2796,15 +2512,12 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>1</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2821,15 +2534,12 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>1</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2846,15 +2556,12 @@
           <t>07-11-2025</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>1</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
-        <is>
-          <t>08-11-2025</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -2871,15 +2578,12 @@
           <t>08-11-2025</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>1</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>08-11-2025</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
-        <is>
-          <t>08-11-2025</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2896,15 +2600,12 @@
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>1</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>18-07-2025</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
-        <is>
-          <t>18-07-2025</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2921,15 +2622,12 @@
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>1</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
-        <is>
-          <t>07-08-2025</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2946,15 +2644,12 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>1</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>29-08-2025</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
-        <is>
-          <t>29-08-2025</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -2971,15 +2666,12 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>1</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>20-09-2025</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
-        <is>
-          <t>20-09-2025</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2996,15 +2688,12 @@
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>1</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
-        <is>
-          <t>15-10-2025</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3021,15 +2710,12 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>1</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>27-10-2025</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
-        <is>
-          <t>27-10-2025</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3046,15 +2732,12 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>1</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3071,15 +2754,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>1</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
-        <is>
-          <t>25-04-2025</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3096,15 +2776,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>1</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
-        <is>
-          <t>25-04-2025</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3121,15 +2798,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>1</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
-        <is>
-          <t>25-04-2025</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3146,15 +2820,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>1</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -3171,15 +2842,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>1</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3196,15 +2864,12 @@
           <t>08-05-2025</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>1</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>06-06-2025</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
-        <is>
-          <t>06-06-2025</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
         <is>
           <t>29</t>
         </is>
@@ -3221,15 +2886,12 @@
           <t>16-05-2025</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>1</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>16-05-2025</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
-        <is>
-          <t>16-05-2025</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3246,15 +2908,12 @@
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>1</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>70</t>
         </is>
@@ -3271,15 +2930,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>1</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -3296,15 +2952,12 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>1</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>25-06-2025</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>25-06-2025</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -3321,15 +2974,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>1</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3346,15 +2996,12 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>1</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>19-06-2025</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
-        <is>
-          <t>19-06-2025</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3371,15 +3018,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>1</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>15-07-2025</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
-        <is>
-          <t>15-07-2025</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3396,15 +3040,12 @@
           <t>28-06-2025</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>1</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>28-06-2025</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
-        <is>
-          <t>28-06-2025</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3421,15 +3062,12 @@
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>1</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>05-07-2025</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>05-07-2025</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3446,15 +3084,12 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>1</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>24-07-2025</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
-        <is>
-          <t>24-07-2025</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -3471,15 +3106,12 @@
           <t>15-07-2025</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>1</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>24-07-2025</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
-        <is>
-          <t>24-07-2025</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -3496,15 +3128,12 @@
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>1</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>22-07-2025</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>22-07-2025</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3521,15 +3150,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>1</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>22-08-2025</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -3546,15 +3172,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>1</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3571,15 +3194,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>1</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3596,15 +3216,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>1</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3621,15 +3238,12 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>1</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>23-08-2025</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
-        <is>
-          <t>23-08-2025</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -3646,15 +3260,12 @@
           <t>14-08-2025</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>1</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>14-08-2025</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
-        <is>
-          <t>14-08-2025</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3671,15 +3282,12 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>1</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>18-08-2025</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
-        <is>
-          <t>18-08-2025</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3696,15 +3304,12 @@
           <t>18-08-2025</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>1</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>18-08-2025</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
-        <is>
-          <t>18-08-2025</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3721,15 +3326,12 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>1</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>22-08-2025</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3746,15 +3348,12 @@
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>1</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>23-08-2025</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
-        <is>
-          <t>23-08-2025</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3771,15 +3370,12 @@
           <t>23-08-2025</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>1</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>23-08-2025</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
-        <is>
-          <t>23-08-2025</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3796,15 +3392,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>1</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>23-09-2025</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
-        <is>
-          <t>23-09-2025</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -3821,15 +3414,12 @@
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>1</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>08-09-2025</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
-        <is>
-          <t>08-09-2025</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3846,15 +3436,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>1</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3871,15 +3458,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>1</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3896,15 +3480,12 @@
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>1</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3921,15 +3502,12 @@
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>1</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>13-09-2025</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
-        <is>
-          <t>13-09-2025</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3946,15 +3524,12 @@
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>1</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>18-09-2025</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
-        <is>
-          <t>18-09-2025</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3971,15 +3546,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>1</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>26-09-2025</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
-        <is>
-          <t>26-09-2025</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3996,15 +3568,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>0</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
-        <is>
-          <t>15-10-2025</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -4021,15 +3590,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>1</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4046,15 +3612,12 @@
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>1</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4071,15 +3634,12 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>1</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>11-10-2025</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
-        <is>
-          <t>11-10-2025</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4096,15 +3656,12 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>1</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>11-10-2025</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>11-10-2025</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4121,15 +3678,12 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>1</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>11-10-2025</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>11-10-2025</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4146,15 +3700,12 @@
           <t>07-10-2025</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>1</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>12-10-2025</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
-        <is>
-          <t>12-10-2025</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4171,15 +3722,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>1</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4196,15 +3744,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>1</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4221,15 +3766,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>1</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4246,15 +3788,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>1</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4271,15 +3810,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>1</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -4296,15 +3832,12 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>1</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>27-10-2025</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
-        <is>
-          <t>27-10-2025</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4321,15 +3854,12 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>1</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
-        <is>
-          <t>30-10-2025</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4346,15 +3876,12 @@
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>1</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
-        <is>
-          <t>03-11-2025</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4371,15 +3898,12 @@
           <t>03-11-2025</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>1</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>03-11-2025</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>03-11-2025</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4396,15 +3920,12 @@
           <t>05-11-2025</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>1</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
-        <is>
-          <t>05-11-2025</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4421,15 +3942,12 @@
           <t>04-11-2025</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>1</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>07-11-2025</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
-        <is>
-          <t>07-11-2025</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4446,15 +3964,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>1</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -4471,15 +3986,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>1</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -4496,15 +4008,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>1</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4521,15 +4030,12 @@
           <t>09-05-2025</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>1</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>10-05-2025</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
-        <is>
-          <t>10-05-2025</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4546,15 +4052,12 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>1</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
-        <is>
-          <t>15-05-2025</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4571,15 +4074,12 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>1</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>17-05-2025</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
-        <is>
-          <t>17-05-2025</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -4596,15 +4096,12 @@
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>1</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>17-05-2025</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
-        <is>
-          <t>17-05-2025</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4621,15 +4118,12 @@
           <t>22-05-2025</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>1</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4646,15 +4140,12 @@
           <t>27-05-2025</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>1</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>28-05-2025</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
-        <is>
-          <t>28-05-2025</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4671,15 +4162,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>1</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
-        <is>
-          <t>30-05-2025</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4696,15 +4184,12 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>0</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>05-06-2025</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
-        <is>
-          <t>05-06-2025</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4721,15 +4206,12 @@
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>1</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>18-06-2025</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
-        <is>
-          <t>18-06-2025</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4746,15 +4228,12 @@
           <t>18-06-2025</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>1</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>18-06-2025</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
-        <is>
-          <t>18-06-2025</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4771,15 +4250,12 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>1</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>04-07-2025</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
-        <is>
-          <t>04-07-2025</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -4796,15 +4272,12 @@
           <t>24-06-2025</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>1</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>24-06-2025</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
-        <is>
-          <t>24-06-2025</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4821,15 +4294,12 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>1</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>03-07-2025</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
-        <is>
-          <t>03-07-2025</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4846,15 +4316,12 @@
           <t>05-07-2025</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>1</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>05-07-2025</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
-        <is>
-          <t>05-07-2025</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4871,15 +4338,12 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>1</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>07-07-2025</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
-        <is>
-          <t>07-07-2025</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4896,15 +4360,12 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>1</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>07-07-2025</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
-        <is>
-          <t>07-07-2025</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4921,15 +4382,12 @@
           <t>14-07-2025</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>1</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>14-07-2025</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
-        <is>
-          <t>14-07-2025</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4946,15 +4404,12 @@
           <t>15-07-2025</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>1</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>16-07-2025</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
-        <is>
-          <t>16-07-2025</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4971,15 +4426,12 @@
           <t>17-07-2025</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>1</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>17-07-2025</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
-        <is>
-          <t>17-07-2025</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -4996,15 +4448,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>1</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5021,15 +4470,12 @@
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>1</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>04-08-2025</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
-        <is>
-          <t>04-08-2025</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5046,15 +4492,12 @@
           <t>04-08-2025</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>1</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>04-08-2025</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
-        <is>
-          <t>04-08-2025</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5071,15 +4514,12 @@
           <t>19-08-2025</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>1</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>19-08-2025</t>
+        </is>
       </c>
       <c r="D186" t="inlineStr">
-        <is>
-          <t>19-08-2025</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5096,15 +4536,12 @@
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>1</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>21-08-2025</t>
+        </is>
       </c>
       <c r="D187" t="inlineStr">
-        <is>
-          <t>21-08-2025</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5121,15 +4558,12 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>1</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>25-08-2025</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
-        <is>
-          <t>25-08-2025</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5146,15 +4580,12 @@
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>1</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>31-08-2025</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
-        <is>
-          <t>31-08-2025</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5171,15 +4602,12 @@
           <t>05-09-2025</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>1</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>05-09-2025</t>
+        </is>
       </c>
       <c r="D190" t="inlineStr">
-        <is>
-          <t>05-09-2025</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5196,15 +4624,12 @@
           <t>10-09-2025</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>1</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>10-09-2025</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
-        <is>
-          <t>10-09-2025</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5221,15 +4646,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>1</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D192" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5246,15 +4668,12 @@
           <t>13-09-2025</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>1</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>13-09-2025</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
-        <is>
-          <t>13-09-2025</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5271,15 +4690,12 @@
           <t>14-09-2025</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>1</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>14-09-2025</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
-        <is>
-          <t>14-09-2025</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5296,15 +4712,12 @@
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>1</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>17-09-2025</t>
+        </is>
       </c>
       <c r="D195" t="inlineStr">
-        <is>
-          <t>17-09-2025</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5321,15 +4734,12 @@
           <t>18-09-2025</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>1</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>18-09-2025</t>
+        </is>
       </c>
       <c r="D196" t="inlineStr">
-        <is>
-          <t>18-09-2025</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5346,15 +4756,12 @@
           <t>20-09-2025</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>1</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>20-09-2025</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
-        <is>
-          <t>20-09-2025</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5371,15 +4778,12 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>1</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D198" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -5396,15 +4800,12 @@
           <t>24-09-2025</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>1</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>25-09-2025</t>
+        </is>
       </c>
       <c r="D199" t="inlineStr">
-        <is>
-          <t>25-09-2025</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -5421,15 +4822,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>1</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5446,15 +4844,12 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>1</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>08-10-2025</t>
+        </is>
       </c>
       <c r="D201" t="inlineStr">
-        <is>
-          <t>08-10-2025</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5471,15 +4866,12 @@
           <t>10-10-2025</t>
         </is>
       </c>
-      <c r="C202" t="n">
-        <v>1</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D202" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5496,15 +4888,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C203" t="n">
-        <v>1</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D203" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5521,15 +4910,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C204" t="n">
-        <v>1</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
       </c>
       <c r="D204" t="inlineStr">
-        <is>
-          <t>17-10-2025</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5546,15 +4932,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C205" t="n">
-        <v>1</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>17-10-2025</t>
+        </is>
       </c>
       <c r="D205" t="inlineStr">
-        <is>
-          <t>17-10-2025</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5571,15 +4954,12 @@
           <t>27-10-2025</t>
         </is>
       </c>
-      <c r="C206" t="n">
-        <v>1</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>27-10-2025</t>
+        </is>
       </c>
       <c r="D206" t="inlineStr">
-        <is>
-          <t>27-10-2025</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5596,15 +4976,12 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C207" t="n">
-        <v>1</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
       </c>
       <c r="D207" t="inlineStr">
-        <is>
-          <t>06-11-2025</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5621,15 +4998,12 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C208" t="n">
-        <v>1</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
       </c>
       <c r="D208" t="inlineStr">
-        <is>
-          <t>06-11-2025</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5646,15 +5020,12 @@
           <t>10-11-2025</t>
         </is>
       </c>
-      <c r="C209" t="n">
-        <v>1</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
       </c>
       <c r="D209" t="inlineStr">
-        <is>
-          <t>10-11-2025</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5671,15 +5042,12 @@
           <t>10-04-2025</t>
         </is>
       </c>
-      <c r="C210" t="n">
-        <v>1</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>16-04-2025</t>
+        </is>
       </c>
       <c r="D210" t="inlineStr">
-        <is>
-          <t>16-04-2025</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -5696,15 +5064,12 @@
           <t>18-04-2025</t>
         </is>
       </c>
-      <c r="C211" t="n">
-        <v>1</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>18-04-2025</t>
+        </is>
       </c>
       <c r="D211" t="inlineStr">
-        <is>
-          <t>18-04-2025</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5721,15 +5086,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C212" t="n">
-        <v>1</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
       </c>
       <c r="D212" t="inlineStr">
-        <is>
-          <t>28-04-2025</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
         <is>
           <t>27</t>
         </is>
@@ -5746,15 +5108,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C213" t="n">
-        <v>1</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D213" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5771,15 +5130,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C214" t="n">
-        <v>1</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>25-04-2025</t>
+        </is>
       </c>
       <c r="D214" t="inlineStr">
-        <is>
-          <t>25-04-2025</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5796,15 +5152,12 @@
           <t>01-04-2025</t>
         </is>
       </c>
-      <c r="C215" t="n">
-        <v>1</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>23-04-2025</t>
+        </is>
       </c>
       <c r="D215" t="inlineStr">
-        <is>
-          <t>23-04-2025</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -5821,15 +5174,12 @@
           <t>23-04-2025</t>
         </is>
       </c>
-      <c r="C216" t="n">
-        <v>1</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D216" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -5846,15 +5196,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C217" t="n">
-        <v>1</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
       </c>
       <c r="D217" t="inlineStr">
-        <is>
-          <t>26-04-2025</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5871,15 +5218,12 @@
           <t>26-04-2025</t>
         </is>
       </c>
-      <c r="C218" t="n">
-        <v>1</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>26-04-2025</t>
+        </is>
       </c>
       <c r="D218" t="inlineStr">
-        <is>
-          <t>26-04-2025</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -5896,15 +5240,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C219" t="n">
-        <v>1</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>21-05-2025</t>
+        </is>
       </c>
       <c r="D219" t="inlineStr">
-        <is>
-          <t>21-05-2025</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5921,15 +5262,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C220" t="n">
-        <v>1</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>21-05-2025</t>
+        </is>
       </c>
       <c r="D220" t="inlineStr">
-        <is>
-          <t>21-05-2025</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5946,15 +5284,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C221" t="n">
-        <v>1</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
       </c>
       <c r="D221" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -5971,15 +5306,12 @@
           <t>28-04-2025</t>
         </is>
       </c>
-      <c r="C222" t="n">
-        <v>1</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>21-05-2025</t>
+        </is>
       </c>
       <c r="D222" t="inlineStr">
-        <is>
-          <t>21-05-2025</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
         <is>
           <t>23</t>
         </is>
@@ -5996,15 +5328,12 @@
           <t>29-04-2025</t>
         </is>
       </c>
-      <c r="C223" t="n">
-        <v>1</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>20-05-2025</t>
+        </is>
       </c>
       <c r="D223" t="inlineStr">
-        <is>
-          <t>20-05-2025</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -6021,15 +5350,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C224" t="n">
-        <v>1</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>24-05-2025</t>
+        </is>
       </c>
       <c r="D224" t="inlineStr">
-        <is>
-          <t>24-05-2025</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -6046,15 +5372,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C225" t="n">
-        <v>1</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
       </c>
       <c r="D225" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -6071,15 +5394,12 @@
           <t>30-04-2025</t>
         </is>
       </c>
-      <c r="C226" t="n">
-        <v>1</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>30-04-2025</t>
+        </is>
       </c>
       <c r="D226" t="inlineStr">
-        <is>
-          <t>30-04-2025</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6096,15 +5416,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C227" t="n">
-        <v>1</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D227" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6121,15 +5438,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C228" t="n">
-        <v>1</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D228" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6146,15 +5460,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C229" t="n">
-        <v>1</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D229" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6171,15 +5482,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C230" t="n">
-        <v>1</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D230" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6196,15 +5504,12 @@
           <t>07-05-2025</t>
         </is>
       </c>
-      <c r="C231" t="n">
-        <v>1</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>08-05-2025</t>
+        </is>
       </c>
       <c r="D231" t="inlineStr">
-        <is>
-          <t>08-05-2025</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6221,15 +5526,12 @@
           <t>12-05-2025</t>
         </is>
       </c>
-      <c r="C232" t="n">
-        <v>1</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>12-05-2025</t>
+        </is>
       </c>
       <c r="D232" t="inlineStr">
-        <is>
-          <t>12-05-2025</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6246,15 +5548,12 @@
           <t>13-05-2025</t>
         </is>
       </c>
-      <c r="C233" t="n">
-        <v>1</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>13-05-2025</t>
+        </is>
       </c>
       <c r="D233" t="inlineStr">
-        <is>
-          <t>13-05-2025</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6271,15 +5570,12 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C234" t="n">
-        <v>1</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
       </c>
       <c r="D234" t="inlineStr">
-        <is>
-          <t>15-05-2025</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6296,15 +5592,12 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C235" t="n">
-        <v>1</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>14-05-2025</t>
+        </is>
       </c>
       <c r="D235" t="inlineStr">
-        <is>
-          <t>14-05-2025</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6321,15 +5614,12 @@
           <t>14-05-2025</t>
         </is>
       </c>
-      <c r="C236" t="n">
-        <v>1</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>16-05-2025</t>
+        </is>
       </c>
       <c r="D236" t="inlineStr">
-        <is>
-          <t>16-05-2025</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -6346,15 +5636,12 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C237" t="n">
-        <v>1</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
       </c>
       <c r="D237" t="inlineStr">
-        <is>
-          <t>15-05-2025</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6371,15 +5658,12 @@
           <t>15-05-2025</t>
         </is>
       </c>
-      <c r="C238" t="n">
-        <v>1</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>15-05-2025</t>
+        </is>
       </c>
       <c r="D238" t="inlineStr">
-        <is>
-          <t>15-05-2025</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6396,15 +5680,12 @@
           <t>17-05-2025</t>
         </is>
       </c>
-      <c r="C239" t="n">
-        <v>1</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>22-05-2025</t>
+        </is>
       </c>
       <c r="D239" t="inlineStr">
-        <is>
-          <t>22-05-2025</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -6421,15 +5702,12 @@
           <t>19-05-2025</t>
         </is>
       </c>
-      <c r="C240" t="n">
-        <v>1</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>27-05-2025</t>
+        </is>
       </c>
       <c r="D240" t="inlineStr">
-        <is>
-          <t>27-05-2025</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
         <is>
           <t>8</t>
         </is>
@@ -6446,15 +5724,12 @@
           <t>05-05-2025</t>
         </is>
       </c>
-      <c r="C241" t="n">
-        <v>1</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>31-05-2025</t>
+        </is>
       </c>
       <c r="D241" t="inlineStr">
-        <is>
-          <t>31-05-2025</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -6471,15 +5746,12 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C242" t="n">
-        <v>1</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
       </c>
       <c r="D242" t="inlineStr">
-        <is>
-          <t>14-06-2025</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -6496,15 +5768,12 @@
           <t>23-05-2025</t>
         </is>
       </c>
-      <c r="C243" t="n">
-        <v>0</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
       </c>
       <c r="D243" t="inlineStr">
-        <is>
-          <t>14-06-2025</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
         <is>
           <t>22</t>
         </is>
@@ -6521,15 +5790,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C244" t="n">
-        <v>0</v>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
       </c>
       <c r="D244" t="inlineStr">
-        <is>
-          <t>14-06-2025</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -6546,15 +5812,12 @@
           <t>26-05-2025</t>
         </is>
       </c>
-      <c r="C245" t="n">
-        <v>1</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
       </c>
       <c r="D245" t="inlineStr">
-        <is>
-          <t>14-06-2025</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -6571,15 +5834,12 @@
           <t>28-05-2025</t>
         </is>
       </c>
-      <c r="C246" t="n">
-        <v>1</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D246" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -6596,15 +5856,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C247" t="n">
-        <v>1</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>30-05-2025</t>
+        </is>
       </c>
       <c r="D247" t="inlineStr">
-        <is>
-          <t>30-05-2025</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -6621,15 +5878,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C248" t="n">
-        <v>1</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D248" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6646,15 +5900,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C249" t="n">
-        <v>1</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D249" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6671,15 +5922,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C250" t="n">
-        <v>1</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D250" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6696,15 +5944,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C251" t="n">
-        <v>1</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D251" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6721,15 +5966,12 @@
           <t>29-05-2025</t>
         </is>
       </c>
-      <c r="C252" t="n">
-        <v>1</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>29-05-2025</t>
+        </is>
       </c>
       <c r="D252" t="inlineStr">
-        <is>
-          <t>29-05-2025</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6746,15 +5988,12 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C253" t="n">
-        <v>1</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>31-05-2025</t>
+        </is>
       </c>
       <c r="D253" t="inlineStr">
-        <is>
-          <t>31-05-2025</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6771,15 +6010,12 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C254" t="n">
-        <v>1</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>31-05-2025</t>
+        </is>
       </c>
       <c r="D254" t="inlineStr">
-        <is>
-          <t>31-05-2025</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6796,15 +6032,12 @@
           <t>31-05-2025</t>
         </is>
       </c>
-      <c r="C255" t="n">
-        <v>1</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>31-05-2025</t>
+        </is>
       </c>
       <c r="D255" t="inlineStr">
-        <is>
-          <t>31-05-2025</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6821,15 +6054,12 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C256" t="n">
-        <v>1</v>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>04-06-2025</t>
+        </is>
       </c>
       <c r="D256" t="inlineStr">
-        <is>
-          <t>04-06-2025</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6846,15 +6076,12 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C257" t="n">
-        <v>1</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>04-06-2025</t>
+        </is>
       </c>
       <c r="D257" t="inlineStr">
-        <is>
-          <t>04-06-2025</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6871,15 +6098,12 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C258" t="n">
-        <v>1</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>04-06-2025</t>
+        </is>
       </c>
       <c r="D258" t="inlineStr">
-        <is>
-          <t>04-06-2025</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6896,15 +6120,12 @@
           <t>04-06-2025</t>
         </is>
       </c>
-      <c r="C259" t="n">
-        <v>1</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D259" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -6921,15 +6142,12 @@
           <t>05-06-2025</t>
         </is>
       </c>
-      <c r="C260" t="n">
-        <v>1</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>05-06-2025</t>
+        </is>
       </c>
       <c r="D260" t="inlineStr">
-        <is>
-          <t>05-06-2025</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6946,15 +6164,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C261" t="n">
-        <v>1</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D261" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -6971,15 +6186,12 @@
           <t>12-06-2025</t>
         </is>
       </c>
-      <c r="C262" t="n">
-        <v>1</v>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>16-07-2025</t>
+        </is>
       </c>
       <c r="D262" t="inlineStr">
-        <is>
-          <t>16-07-2025</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
         <is>
           <t>34</t>
         </is>
@@ -6996,15 +6208,12 @@
           <t>14-06-2025</t>
         </is>
       </c>
-      <c r="C263" t="n">
-        <v>1</v>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>14-06-2025</t>
+        </is>
       </c>
       <c r="D263" t="inlineStr">
-        <is>
-          <t>14-06-2025</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7021,15 +6230,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C264" t="n">
-        <v>1</v>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D264" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7046,15 +6252,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C265" t="n">
-        <v>1</v>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D265" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7071,15 +6274,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C266" t="n">
-        <v>1</v>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D266" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7096,15 +6296,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C267" t="n">
-        <v>1</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D267" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7121,15 +6318,12 @@
           <t>16-06-2025</t>
         </is>
       </c>
-      <c r="C268" t="n">
-        <v>1</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>16-06-2025</t>
+        </is>
       </c>
       <c r="D268" t="inlineStr">
-        <is>
-          <t>16-06-2025</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7146,15 +6340,12 @@
           <t>17-06-2025</t>
         </is>
       </c>
-      <c r="C269" t="n">
-        <v>1</v>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>17-06-2025</t>
+        </is>
       </c>
       <c r="D269" t="inlineStr">
-        <is>
-          <t>17-06-2025</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7171,15 +6362,12 @@
           <t>19-06-2025</t>
         </is>
       </c>
-      <c r="C270" t="n">
-        <v>1</v>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>19-06-2025</t>
+        </is>
       </c>
       <c r="D270" t="inlineStr">
-        <is>
-          <t>19-06-2025</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7196,15 +6384,12 @@
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="C271" t="n">
-        <v>1</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>20-06-2025</t>
+        </is>
       </c>
       <c r="D271" t="inlineStr">
-        <is>
-          <t>20-06-2025</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7221,15 +6406,12 @@
           <t>20-06-2025</t>
         </is>
       </c>
-      <c r="C272" t="n">
-        <v>1</v>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>20-06-2025</t>
+        </is>
       </c>
       <c r="D272" t="inlineStr">
-        <is>
-          <t>20-06-2025</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7246,15 +6428,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C273" t="n">
-        <v>1</v>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>08-07-2025</t>
+        </is>
       </c>
       <c r="D273" t="inlineStr">
-        <is>
-          <t>08-07-2025</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -7271,15 +6450,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C274" t="n">
-        <v>1</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>09-07-2025</t>
+        </is>
       </c>
       <c r="D274" t="inlineStr">
-        <is>
-          <t>09-07-2025</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -7296,15 +6472,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C275" t="n">
-        <v>1</v>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>08-07-2025</t>
+        </is>
       </c>
       <c r="D275" t="inlineStr">
-        <is>
-          <t>08-07-2025</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
         <is>
           <t>17</t>
         </is>
@@ -7321,15 +6494,12 @@
           <t>21-06-2025</t>
         </is>
       </c>
-      <c r="C276" t="n">
-        <v>1</v>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>09-07-2025</t>
+        </is>
       </c>
       <c r="D276" t="inlineStr">
-        <is>
-          <t>09-07-2025</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -7346,15 +6516,12 @@
           <t>23-06-2025</t>
         </is>
       </c>
-      <c r="C277" t="n">
-        <v>1</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>23-06-2025</t>
+        </is>
       </c>
       <c r="D277" t="inlineStr">
-        <is>
-          <t>23-06-2025</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7371,15 +6538,12 @@
           <t>26-06-2025</t>
         </is>
       </c>
-      <c r="C278" t="n">
-        <v>1</v>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>26-06-2025</t>
+        </is>
       </c>
       <c r="D278" t="inlineStr">
-        <is>
-          <t>26-06-2025</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7396,15 +6560,12 @@
           <t>27-06-2025</t>
         </is>
       </c>
-      <c r="C279" t="n">
-        <v>1</v>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>27-06-2025</t>
+        </is>
       </c>
       <c r="D279" t="inlineStr">
-        <is>
-          <t>27-06-2025</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7421,15 +6582,12 @@
           <t>30-06-2025</t>
         </is>
       </c>
-      <c r="C280" t="n">
-        <v>1</v>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>02-07-2025</t>
+        </is>
       </c>
       <c r="D280" t="inlineStr">
-        <is>
-          <t>02-07-2025</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7446,15 +6604,12 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C281" t="n">
-        <v>1</v>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>03-07-2025</t>
+        </is>
       </c>
       <c r="D281" t="inlineStr">
-        <is>
-          <t>03-07-2025</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7471,15 +6626,12 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C282" t="n">
-        <v>1</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>02-07-2025</t>
+        </is>
       </c>
       <c r="D282" t="inlineStr">
-        <is>
-          <t>02-07-2025</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7496,15 +6648,12 @@
           <t>02-07-2025</t>
         </is>
       </c>
-      <c r="C283" t="n">
-        <v>1</v>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>02-07-2025</t>
+        </is>
       </c>
       <c r="D283" t="inlineStr">
-        <is>
-          <t>02-07-2025</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7521,15 +6670,12 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C284" t="n">
-        <v>1</v>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>03-07-2025</t>
+        </is>
       </c>
       <c r="D284" t="inlineStr">
-        <is>
-          <t>03-07-2025</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7546,15 +6692,12 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C285" t="n">
-        <v>1</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>03-07-2025</t>
+        </is>
       </c>
       <c r="D285" t="inlineStr">
-        <is>
-          <t>03-07-2025</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7571,15 +6714,12 @@
           <t>03-07-2025</t>
         </is>
       </c>
-      <c r="C286" t="n">
-        <v>1</v>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>03-07-2025</t>
+        </is>
       </c>
       <c r="D286" t="inlineStr">
-        <is>
-          <t>03-07-2025</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7596,15 +6736,12 @@
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="C287" t="n">
-        <v>1</v>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>04-07-2025</t>
+        </is>
       </c>
       <c r="D287" t="inlineStr">
-        <is>
-          <t>04-07-2025</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7621,15 +6758,12 @@
           <t>04-07-2025</t>
         </is>
       </c>
-      <c r="C288" t="n">
-        <v>1</v>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>04-07-2025</t>
+        </is>
       </c>
       <c r="D288" t="inlineStr">
-        <is>
-          <t>04-07-2025</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7646,15 +6780,12 @@
           <t>07-07-2025</t>
         </is>
       </c>
-      <c r="C289" t="n">
-        <v>1</v>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>07-07-2025</t>
+        </is>
       </c>
       <c r="D289" t="inlineStr">
-        <is>
-          <t>07-07-2025</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7671,15 +6802,12 @@
           <t>09-07-2025</t>
         </is>
       </c>
-      <c r="C290" t="n">
-        <v>1</v>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>09-07-2025</t>
+        </is>
       </c>
       <c r="D290" t="inlineStr">
-        <is>
-          <t>09-07-2025</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7696,15 +6824,12 @@
           <t>12-07-2025</t>
         </is>
       </c>
-      <c r="C291" t="n">
-        <v>1</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>12-07-2025</t>
+        </is>
       </c>
       <c r="D291" t="inlineStr">
-        <is>
-          <t>12-07-2025</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7721,15 +6846,12 @@
           <t>18-07-2025</t>
         </is>
       </c>
-      <c r="C292" t="n">
-        <v>1</v>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>18-07-2025</t>
+        </is>
       </c>
       <c r="D292" t="inlineStr">
-        <is>
-          <t>18-07-2025</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7746,15 +6868,12 @@
           <t>19-07-2025</t>
         </is>
       </c>
-      <c r="C293" t="n">
-        <v>1</v>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>19-07-2025</t>
+        </is>
       </c>
       <c r="D293" t="inlineStr">
-        <is>
-          <t>19-07-2025</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7771,15 +6890,12 @@
           <t>22-07-2025</t>
         </is>
       </c>
-      <c r="C294" t="n">
-        <v>1</v>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>22-07-2025</t>
+        </is>
       </c>
       <c r="D294" t="inlineStr">
-        <is>
-          <t>22-07-2025</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7796,15 +6912,12 @@
           <t>25-07-2025</t>
         </is>
       </c>
-      <c r="C295" t="n">
-        <v>1</v>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>12-08-2025</t>
+        </is>
       </c>
       <c r="D295" t="inlineStr">
-        <is>
-          <t>12-08-2025</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
         <is>
           <t>18</t>
         </is>
@@ -7821,15 +6934,12 @@
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="C296" t="n">
-        <v>1</v>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>28-07-2025</t>
+        </is>
       </c>
       <c r="D296" t="inlineStr">
-        <is>
-          <t>28-07-2025</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7846,15 +6956,12 @@
           <t>28-07-2025</t>
         </is>
       </c>
-      <c r="C297" t="n">
-        <v>1</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>28-07-2025</t>
+        </is>
       </c>
       <c r="D297" t="inlineStr">
-        <is>
-          <t>28-07-2025</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7871,15 +6978,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C298" t="n">
-        <v>1</v>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>29-07-2025</t>
+        </is>
       </c>
       <c r="D298" t="inlineStr">
-        <is>
-          <t>29-07-2025</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7896,15 +7000,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C299" t="n">
-        <v>1</v>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>12-08-2025</t>
+        </is>
       </c>
       <c r="D299" t="inlineStr">
-        <is>
-          <t>12-08-2025</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -7921,15 +7022,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C300" t="n">
-        <v>1</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>22-08-2025</t>
+        </is>
       </c>
       <c r="D300" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -7946,15 +7044,12 @@
           <t>29-07-2025</t>
         </is>
       </c>
-      <c r="C301" t="n">
-        <v>1</v>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>13-08-2025</t>
+        </is>
       </c>
       <c r="D301" t="inlineStr">
-        <is>
-          <t>13-08-2025</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -7971,15 +7066,12 @@
           <t>31-07-2025</t>
         </is>
       </c>
-      <c r="C302" t="n">
-        <v>1</v>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>31-07-2025</t>
+        </is>
       </c>
       <c r="D302" t="inlineStr">
-        <is>
-          <t>31-07-2025</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -7996,15 +7088,12 @@
           <t>03-08-2025</t>
         </is>
       </c>
-      <c r="C303" t="n">
-        <v>1</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>03-08-2025</t>
+        </is>
       </c>
       <c r="D303" t="inlineStr">
-        <is>
-          <t>03-08-2025</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8021,15 +7110,12 @@
           <t>07-08-2025</t>
         </is>
       </c>
-      <c r="C304" t="n">
-        <v>1</v>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>07-08-2025</t>
+        </is>
       </c>
       <c r="D304" t="inlineStr">
-        <is>
-          <t>07-08-2025</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8046,15 +7132,12 @@
           <t>08-08-2025</t>
         </is>
       </c>
-      <c r="C305" t="n">
-        <v>1</v>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>08-08-2025</t>
+        </is>
       </c>
       <c r="D305" t="inlineStr">
-        <is>
-          <t>08-08-2025</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8071,15 +7154,12 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C306" t="n">
-        <v>1</v>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>11-08-2025</t>
+        </is>
       </c>
       <c r="D306" t="inlineStr">
-        <is>
-          <t>11-08-2025</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8096,15 +7176,12 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C307" t="n">
-        <v>1</v>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>13-08-2025</t>
+        </is>
       </c>
       <c r="D307" t="inlineStr">
-        <is>
-          <t>13-08-2025</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -8121,15 +7198,12 @@
           <t>11-08-2025</t>
         </is>
       </c>
-      <c r="C308" t="n">
-        <v>1</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>11-08-2025</t>
+        </is>
       </c>
       <c r="D308" t="inlineStr">
-        <is>
-          <t>11-08-2025</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8146,15 +7220,12 @@
           <t>21-08-2025</t>
         </is>
       </c>
-      <c r="C309" t="n">
-        <v>1</v>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>21-08-2025</t>
+        </is>
       </c>
       <c r="D309" t="inlineStr">
-        <is>
-          <t>21-08-2025</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8171,15 +7242,12 @@
           <t>22-08-2025</t>
         </is>
       </c>
-      <c r="C310" t="n">
-        <v>1</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>22-08-2025</t>
+        </is>
       </c>
       <c r="D310" t="inlineStr">
-        <is>
-          <t>22-08-2025</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8196,15 +7264,12 @@
           <t>25-08-2025</t>
         </is>
       </c>
-      <c r="C311" t="n">
-        <v>1</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>25-08-2025</t>
+        </is>
       </c>
       <c r="D311" t="inlineStr">
-        <is>
-          <t>25-08-2025</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8221,15 +7286,12 @@
           <t>30-08-2025</t>
         </is>
       </c>
-      <c r="C312" t="n">
-        <v>1</v>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>30-08-2025</t>
+        </is>
       </c>
       <c r="D312" t="inlineStr">
-        <is>
-          <t>30-08-2025</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8246,15 +7308,12 @@
           <t>31-08-2025</t>
         </is>
       </c>
-      <c r="C313" t="n">
-        <v>1</v>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>31-08-2025</t>
+        </is>
       </c>
       <c r="D313" t="inlineStr">
-        <is>
-          <t>31-08-2025</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8271,15 +7330,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C314" t="n">
-        <v>1</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>02-09-2025</t>
+        </is>
       </c>
       <c r="D314" t="inlineStr">
-        <is>
-          <t>02-09-2025</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -8296,15 +7352,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C315" t="n">
-        <v>1</v>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D315" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -8321,15 +7374,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C316" t="n">
-        <v>1</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D316" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -8346,15 +7396,12 @@
           <t>01-09-2025</t>
         </is>
       </c>
-      <c r="C317" t="n">
-        <v>1</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D317" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
         <is>
           <t>11</t>
         </is>
@@ -8371,15 +7418,12 @@
           <t>05-09-2025</t>
         </is>
       </c>
-      <c r="C318" t="n">
-        <v>1</v>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D318" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -8396,15 +7440,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C319" t="n">
-        <v>1</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D319" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8421,15 +7462,12 @@
           <t>11-09-2025</t>
         </is>
       </c>
-      <c r="C320" t="n">
-        <v>1</v>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>11-09-2025</t>
+        </is>
       </c>
       <c r="D320" t="inlineStr">
-        <is>
-          <t>11-09-2025</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8446,15 +7484,12 @@
           <t>12-09-2025</t>
         </is>
       </c>
-      <c r="C321" t="n">
-        <v>1</v>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>12-09-2025</t>
+        </is>
       </c>
       <c r="D321" t="inlineStr">
-        <is>
-          <t>12-09-2025</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8471,15 +7506,12 @@
           <t>15-09-2025</t>
         </is>
       </c>
-      <c r="C322" t="n">
-        <v>1</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>15-09-2025</t>
+        </is>
       </c>
       <c r="D322" t="inlineStr">
-        <is>
-          <t>15-09-2025</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8496,15 +7528,12 @@
           <t>15-09-2025</t>
         </is>
       </c>
-      <c r="C323" t="n">
-        <v>1</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>29-09-2025</t>
+        </is>
       </c>
       <c r="D323" t="inlineStr">
-        <is>
-          <t>29-09-2025</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -8521,15 +7550,12 @@
           <t>16-09-2025</t>
         </is>
       </c>
-      <c r="C324" t="n">
-        <v>1</v>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>16-09-2025</t>
+        </is>
       </c>
       <c r="D324" t="inlineStr">
-        <is>
-          <t>16-09-2025</t>
-        </is>
-      </c>
-      <c r="E324" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8546,15 +7572,12 @@
           <t>17-09-2025</t>
         </is>
       </c>
-      <c r="C325" t="n">
-        <v>1</v>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>17-09-2025</t>
+        </is>
       </c>
       <c r="D325" t="inlineStr">
-        <is>
-          <t>17-09-2025</t>
-        </is>
-      </c>
-      <c r="E325" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8571,15 +7594,12 @@
           <t>19-09-2025</t>
         </is>
       </c>
-      <c r="C326" t="n">
-        <v>1</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D326" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -8596,15 +7616,12 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C327" t="n">
-        <v>1</v>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>22-09-2025</t>
+        </is>
       </c>
       <c r="D327" t="inlineStr">
-        <is>
-          <t>22-09-2025</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8621,15 +7638,12 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C328" t="n">
-        <v>1</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>22-09-2025</t>
+        </is>
       </c>
       <c r="D328" t="inlineStr">
-        <is>
-          <t>22-09-2025</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8646,15 +7660,12 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C329" t="n">
-        <v>1</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
       </c>
       <c r="D329" t="inlineStr">
-        <is>
-          <t>20-10-2025</t>
-        </is>
-      </c>
-      <c r="E329" t="inlineStr">
         <is>
           <t>28</t>
         </is>
@@ -8671,15 +7682,12 @@
           <t>22-09-2025</t>
         </is>
       </c>
-      <c r="C330" t="n">
-        <v>1</v>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>07-10-2025</t>
+        </is>
       </c>
       <c r="D330" t="inlineStr">
-        <is>
-          <t>07-10-2025</t>
-        </is>
-      </c>
-      <c r="E330" t="inlineStr">
         <is>
           <t>15</t>
         </is>
@@ -8696,15 +7704,12 @@
           <t>23-09-2025</t>
         </is>
       </c>
-      <c r="C331" t="n">
-        <v>1</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>23-09-2025</t>
+        </is>
       </c>
       <c r="D331" t="inlineStr">
-        <is>
-          <t>23-09-2025</t>
-        </is>
-      </c>
-      <c r="E331" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8721,15 +7726,12 @@
           <t>25-09-2025</t>
         </is>
       </c>
-      <c r="C332" t="n">
-        <v>1</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>25-09-2025</t>
+        </is>
       </c>
       <c r="D332" t="inlineStr">
-        <is>
-          <t>25-09-2025</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8746,15 +7748,12 @@
           <t>27-09-2025</t>
         </is>
       </c>
-      <c r="C333" t="n">
-        <v>1</v>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>27-09-2025</t>
+        </is>
       </c>
       <c r="D333" t="inlineStr">
-        <is>
-          <t>27-09-2025</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8771,15 +7770,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C334" t="n">
-        <v>1</v>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D334" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
         <is>
           <t>14</t>
         </is>
@@ -8796,15 +7792,12 @@
           <t>26-09-2025</t>
         </is>
       </c>
-      <c r="C335" t="n">
-        <v>1</v>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
       </c>
       <c r="D335" t="inlineStr">
-        <is>
-          <t>15-10-2025</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
         <is>
           <t>19</t>
         </is>
@@ -8821,15 +7814,12 @@
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="C336" t="n">
-        <v>1</v>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>29-09-2025</t>
+        </is>
       </c>
       <c r="D336" t="inlineStr">
-        <is>
-          <t>29-09-2025</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8846,15 +7836,12 @@
           <t>29-09-2025</t>
         </is>
       </c>
-      <c r="C337" t="n">
-        <v>1</v>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>29-09-2025</t>
+        </is>
       </c>
       <c r="D337" t="inlineStr">
-        <is>
-          <t>29-09-2025</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8871,15 +7858,12 @@
           <t>30-09-2025</t>
         </is>
       </c>
-      <c r="C338" t="n">
-        <v>1</v>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>30-09-2025</t>
+        </is>
       </c>
       <c r="D338" t="inlineStr">
-        <is>
-          <t>30-09-2025</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8896,15 +7880,12 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C339" t="n">
-        <v>1</v>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
       </c>
       <c r="D339" t="inlineStr">
-        <is>
-          <t>29-10-2025</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
         <is>
           <t>26</t>
         </is>
@@ -8921,15 +7902,12 @@
           <t>03-10-2025</t>
         </is>
       </c>
-      <c r="C340" t="n">
-        <v>1</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D340" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
         <is>
           <t>10</t>
         </is>
@@ -8946,15 +7924,12 @@
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="C341" t="n">
-        <v>1</v>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>04-10-2025</t>
+        </is>
       </c>
       <c r="D341" t="inlineStr">
-        <is>
-          <t>04-10-2025</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8971,15 +7946,12 @@
           <t>04-10-2025</t>
         </is>
       </c>
-      <c r="C342" t="n">
-        <v>1</v>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>04-10-2025</t>
+        </is>
       </c>
       <c r="D342" t="inlineStr">
-        <is>
-          <t>04-10-2025</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -8996,15 +7968,12 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C343" t="n">
-        <v>1</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
       </c>
       <c r="D343" t="inlineStr">
-        <is>
-          <t>10-10-2025</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -9021,15 +7990,12 @@
           <t>08-10-2025</t>
         </is>
       </c>
-      <c r="C344" t="n">
-        <v>1</v>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>08-10-2025</t>
+        </is>
       </c>
       <c r="D344" t="inlineStr">
-        <is>
-          <t>08-10-2025</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9046,15 +8012,12 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C345" t="n">
-        <v>1</v>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>11-10-2025</t>
+        </is>
       </c>
       <c r="D345" t="inlineStr">
-        <is>
-          <t>11-10-2025</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9071,15 +8034,12 @@
           <t>11-10-2025</t>
         </is>
       </c>
-      <c r="C346" t="n">
-        <v>1</v>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
       </c>
       <c r="D346" t="inlineStr">
-        <is>
-          <t>15-10-2025</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -9096,15 +8056,12 @@
           <t>14-10-2025</t>
         </is>
       </c>
-      <c r="C347" t="n">
-        <v>1</v>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>14-10-2025</t>
+        </is>
       </c>
       <c r="D347" t="inlineStr">
-        <is>
-          <t>14-10-2025</t>
-        </is>
-      </c>
-      <c r="E347" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9121,15 +8078,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C348" t="n">
-        <v>1</v>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>13-10-2025</t>
+        </is>
       </c>
       <c r="D348" t="inlineStr">
-        <is>
-          <t>13-10-2025</t>
-        </is>
-      </c>
-      <c r="E348" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9146,15 +8100,12 @@
           <t>13-10-2025</t>
         </is>
       </c>
-      <c r="C349" t="n">
-        <v>1</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>16-10-2025</t>
+        </is>
       </c>
       <c r="D349" t="inlineStr">
-        <is>
-          <t>16-10-2025</t>
-        </is>
-      </c>
-      <c r="E349" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -9171,15 +8122,12 @@
           <t>15-10-2025</t>
         </is>
       </c>
-      <c r="C350" t="n">
-        <v>1</v>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>15-10-2025</t>
+        </is>
       </c>
       <c r="D350" t="inlineStr">
-        <is>
-          <t>15-10-2025</t>
-        </is>
-      </c>
-      <c r="E350" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9196,15 +8144,12 @@
           <t>16-10-2025</t>
         </is>
       </c>
-      <c r="C351" t="n">
-        <v>1</v>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>16-10-2025</t>
+        </is>
       </c>
       <c r="D351" t="inlineStr">
-        <is>
-          <t>16-10-2025</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9221,15 +8166,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C352" t="n">
-        <v>1</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>07-11-2025</t>
+        </is>
       </c>
       <c r="D352" t="inlineStr">
-        <is>
-          <t>07-11-2025</t>
-        </is>
-      </c>
-      <c r="E352" t="inlineStr">
         <is>
           <t>21</t>
         </is>
@@ -9246,15 +8188,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C353" t="n">
-        <v>1</v>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
       </c>
       <c r="D353" t="inlineStr">
-        <is>
-          <t>29-10-2025</t>
-        </is>
-      </c>
-      <c r="E353" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -9271,15 +8210,12 @@
           <t>17-10-2025</t>
         </is>
       </c>
-      <c r="C354" t="n">
-        <v>1</v>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
       </c>
       <c r="D354" t="inlineStr">
-        <is>
-          <t>10-11-2025</t>
-        </is>
-      </c>
-      <c r="E354" t="inlineStr">
         <is>
           <t>24</t>
         </is>
@@ -9296,15 +8232,12 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C355" t="n">
-        <v>1</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D355" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E355" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9321,15 +8254,12 @@
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="C356" t="n">
-        <v>1</v>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
       </c>
       <c r="D356" t="inlineStr">
-        <is>
-          <t>20-10-2025</t>
-        </is>
-      </c>
-      <c r="E356" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9346,15 +8276,12 @@
           <t>20-10-2025</t>
         </is>
       </c>
-      <c r="C357" t="n">
-        <v>1</v>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>20-10-2025</t>
+        </is>
       </c>
       <c r="D357" t="inlineStr">
-        <is>
-          <t>20-10-2025</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9371,15 +8298,12 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C358" t="n">
-        <v>1</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
       </c>
       <c r="D358" t="inlineStr">
-        <is>
-          <t>28-10-2025</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9396,15 +8320,12 @@
           <t>28-10-2025</t>
         </is>
       </c>
-      <c r="C359" t="n">
-        <v>1</v>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>28-10-2025</t>
+        </is>
       </c>
       <c r="D359" t="inlineStr">
-        <is>
-          <t>28-10-2025</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9421,15 +8342,12 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C360" t="n">
-        <v>1</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
       </c>
       <c r="D360" t="inlineStr">
-        <is>
-          <t>29-10-2025</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9446,15 +8364,12 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C361" t="n">
-        <v>1</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>05-11-2025</t>
+        </is>
       </c>
       <c r="D361" t="inlineStr">
-        <is>
-          <t>05-11-2025</t>
-        </is>
-      </c>
-      <c r="E361" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -9471,15 +8386,12 @@
           <t>29-10-2025</t>
         </is>
       </c>
-      <c r="C362" t="n">
-        <v>1</v>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>29-10-2025</t>
+        </is>
       </c>
       <c r="D362" t="inlineStr">
-        <is>
-          <t>29-10-2025</t>
-        </is>
-      </c>
-      <c r="E362" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9496,15 +8408,12 @@
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="C363" t="n">
-        <v>1</v>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
       </c>
       <c r="D363" t="inlineStr">
-        <is>
-          <t>30-10-2025</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9521,15 +8430,12 @@
           <t>30-10-2025</t>
         </is>
       </c>
-      <c r="C364" t="n">
-        <v>1</v>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>30-10-2025</t>
+        </is>
       </c>
       <c r="D364" t="inlineStr">
-        <is>
-          <t>30-10-2025</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9546,15 +8452,12 @@
           <t>31-10-2025</t>
         </is>
       </c>
-      <c r="C365" t="n">
-        <v>1</v>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>31-10-2025</t>
+        </is>
       </c>
       <c r="D365" t="inlineStr">
-        <is>
-          <t>31-10-2025</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9571,15 +8474,12 @@
           <t>04-11-2025</t>
         </is>
       </c>
-      <c r="C366" t="n">
-        <v>1</v>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>04-11-2025</t>
+        </is>
       </c>
       <c r="D366" t="inlineStr">
-        <is>
-          <t>04-11-2025</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9596,15 +8496,12 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C367" t="n">
-        <v>1</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>06-11-2025</t>
+        </is>
       </c>
       <c r="D367" t="inlineStr">
-        <is>
-          <t>06-11-2025</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9621,15 +8518,12 @@
           <t>06-11-2025</t>
         </is>
       </c>
-      <c r="C368" t="n">
-        <v>1</v>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>10-11-2025</t>
+        </is>
       </c>
       <c r="D368" t="inlineStr">
-        <is>
-          <t>10-11-2025</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -9643,8 +8537,7 @@
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr">
+      <c r="D369" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -9658,8 +8551,7 @@
       </c>
       <c r="B370" t="inlineStr"/>
       <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="inlineStr">
+      <c r="D370" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -9673,8 +8565,7 @@
       </c>
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr">
+      <c r="D371" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>
@@ -9688,8 +8579,7 @@
       </c>
       <c r="B372" t="inlineStr"/>
       <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr">
+      <c r="D372" t="inlineStr">
         <is>
           <t>&lt;NA&gt;</t>
         </is>

--- a/saved_kpis/sales_invoice/table.xlsx
+++ b/saved_kpis/sales_invoice/table.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Final Invoice Date</t>
+          <t>Shipment Creation Date</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>O2C Cycle Days</t>
+          <t>No of Days</t>
         </is>
       </c>
     </row>
